--- a/frentes_activos_20260114_093739.xlsx
+++ b/frentes_activos_20260114_093739.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\programing_workspace\gestor_proyecto_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388752AF-3621-4631-91CB-C65B9411E97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B4C28-C8DD-4588-8F36-FAD4F5C71C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="252">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="249">
   <si>
     <t>nombre_up</t>
   </si>
@@ -60,9 +54,6 @@
   </si>
   <si>
     <t>intervenciones_count</t>
-  </si>
-  <si>
-    <t>Feature</t>
   </si>
   <si>
     <t>I.E. Normal Superior los Farallones</t>
@@ -838,10 +829,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,1401 +1142,1155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="125.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C52" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D70" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D73" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51" t="s">
-        <v>161</v>
-      </c>
-      <c r="E51" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>163</v>
       </c>
-      <c r="D52" t="s">
+      <c r="B77" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="C77" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D77" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>167</v>
       </c>
-      <c r="E53" t="s">
+      <c r="B78" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F53" t="s">
+      <c r="C78" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D78" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D54" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54" t="s">
-        <v>172</v>
-      </c>
-      <c r="F54" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" t="s">
-        <v>62</v>
-      </c>
-      <c r="F55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" t="s">
-        <v>143</v>
-      </c>
-      <c r="E60" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" t="s">
-        <v>188</v>
-      </c>
-      <c r="F62" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s">
-        <v>204</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>206</v>
-      </c>
-      <c r="D69" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" t="s">
-        <v>209</v>
-      </c>
-      <c r="D70" t="s">
-        <v>210</v>
-      </c>
-      <c r="E70" t="s">
-        <v>140</v>
-      </c>
-      <c r="F70" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" t="s">
-        <v>212</v>
-      </c>
-      <c r="D71" t="s">
-        <v>213</v>
-      </c>
-      <c r="E71" t="s">
-        <v>83</v>
-      </c>
-      <c r="F71" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" t="s">
-        <v>215</v>
-      </c>
-      <c r="D72" t="s">
-        <v>216</v>
-      </c>
-      <c r="E72" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" t="s">
-        <v>218</v>
-      </c>
-      <c r="E73" t="s">
-        <v>219</v>
-      </c>
-      <c r="F73" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" t="s">
-        <v>221</v>
-      </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>224</v>
       </c>
-      <c r="E75" t="s">
+      <c r="B79" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F75" t="s">
+      <c r="C79" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D79" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D76" t="s">
-        <v>228</v>
-      </c>
-      <c r="E76" t="s">
-        <v>229</v>
-      </c>
-      <c r="F76" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" t="s">
-        <v>188</v>
-      </c>
-      <c r="F77" t="s">
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B80" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" t="s">
-        <v>99</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="C80" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D80" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D79" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>236</v>
       </c>
-      <c r="E79" t="s">
+      <c r="B81" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F79" t="s">
+      <c r="C81" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D81" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D80" t="s">
-        <v>240</v>
-      </c>
-      <c r="E80" t="s">
-        <v>241</v>
-      </c>
-      <c r="F80" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" t="s">
-        <v>243</v>
-      </c>
-      <c r="D81" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" t="s">
-        <v>244</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D82">
+    <sortCondition ref="C1:C82"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2554,15 +2305,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -2570,7 +2321,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B3">
         <v>88</v>
@@ -2578,7 +2329,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B4">
         <v>80</v>
@@ -2586,10 +2337,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2607,45 +2358,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2656,16 +2407,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2676,16 +2427,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2696,16 +2447,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2716,16 +2467,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2736,16 +2487,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2756,16 +2507,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2776,16 +2527,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2796,16 +2547,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2816,16 +2567,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2836,16 +2587,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2856,16 +2607,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2876,16 +2627,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2896,16 +2647,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2916,16 +2667,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2936,16 +2687,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2956,16 +2707,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2976,16 +2727,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2996,16 +2747,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
         <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3016,16 +2767,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3036,16 +2787,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
         <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3056,16 +2807,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3076,16 +2827,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
         <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3096,16 +2847,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
         <v>83</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3116,16 +2867,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3136,16 +2887,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3156,16 +2907,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
         <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3176,16 +2927,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3196,16 +2947,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
         <v>97</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>100</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3216,16 +2967,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3236,16 +2987,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3256,16 +3007,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3276,16 +3027,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3296,16 +3047,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3316,16 +3067,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3336,16 +3087,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3356,16 +3107,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3376,16 +3127,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
         <v>122</v>
-      </c>
-      <c r="B39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" t="s">
-        <v>125</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3396,16 +3147,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3416,16 +3167,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3436,16 +3187,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3456,16 +3207,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3476,16 +3227,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
         <v>138</v>
-      </c>
-      <c r="B44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" t="s">
-        <v>141</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3496,16 +3247,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3516,16 +3267,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3536,16 +3287,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3556,16 +3307,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3576,16 +3327,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" t="s">
         <v>154</v>
-      </c>
-      <c r="B49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" t="s">
-        <v>157</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3596,16 +3347,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" t="s">
         <v>156</v>
-      </c>
-      <c r="E50" t="s">
-        <v>159</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3616,16 +3367,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3636,16 +3387,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3656,16 +3407,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" t="s">
         <v>166</v>
-      </c>
-      <c r="B53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" t="s">
-        <v>169</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3676,16 +3427,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" t="s">
         <v>170</v>
-      </c>
-      <c r="B54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" t="s">
-        <v>173</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3696,16 +3447,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3716,16 +3467,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3736,16 +3487,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3756,16 +3507,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3776,16 +3527,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3796,16 +3547,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3816,16 +3567,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3836,16 +3587,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3856,16 +3607,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3876,16 +3627,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3896,16 +3647,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3916,16 +3667,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E66" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3936,16 +3687,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3956,16 +3707,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3976,16 +3727,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3996,16 +3747,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4016,16 +3767,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4036,16 +3787,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4056,16 +3807,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E73" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4076,16 +3827,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4096,16 +3847,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" t="s">
         <v>223</v>
-      </c>
-      <c r="B75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" t="s">
-        <v>225</v>
-      </c>
-      <c r="E75" t="s">
-        <v>226</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4116,16 +3867,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" t="s">
         <v>227</v>
-      </c>
-      <c r="B76" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" t="s">
-        <v>229</v>
-      </c>
-      <c r="E76" t="s">
-        <v>230</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4136,16 +3887,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E77" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -4156,16 +3907,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4176,16 +3927,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" t="s">
         <v>235</v>
-      </c>
-      <c r="B79" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79" t="s">
-        <v>238</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4196,16 +3947,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" t="s">
+        <v>238</v>
+      </c>
+      <c r="E80" t="s">
         <v>239</v>
-      </c>
-      <c r="B80" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" t="s">
-        <v>241</v>
-      </c>
-      <c r="E80" t="s">
-        <v>242</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4216,16 +3967,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F81">
         <v>0</v>
